--- a/002792/002792_2019-01_level4.xlsx
+++ b/002792/002792_2019-01_level4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -104,11 +104,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -116,17 +116,30 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -156,14 +169,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -457,9 +471,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="7" width="15.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -507,26 +526,26 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2125151</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.78</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.67</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>1168500</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.87</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0.27</v>
       </c>
     </row>
@@ -573,7 +592,7 @@
         <v>0.86</v>
       </c>
       <c r="G5">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -593,7 +612,7 @@
         <v>2246900</v>
       </c>
       <c r="F6">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="G6">
         <v>0.36</v>
@@ -607,7 +626,7 @@
         <v>1583991</v>
       </c>
       <c r="C7">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="D7">
         <v>0.32</v>
@@ -622,26 +641,26 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" s="2" customFormat="1">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>2391994</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.85</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.59</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>2080300</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>0.9</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>0.43</v>
       </c>
     </row>
@@ -662,7 +681,7 @@
         <v>1076500</v>
       </c>
       <c r="F9">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="G9">
         <v>0.51</v>
@@ -702,7 +721,7 @@
         <v>0.9</v>
       </c>
       <c r="D11">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E11">
         <v>951400</v>
@@ -768,7 +787,7 @@
         <v>1290800</v>
       </c>
       <c r="C14">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="D14">
         <v>0.32</v>
@@ -803,7 +822,7 @@
         <v>0.84</v>
       </c>
       <c r="G15">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -875,26 +894,26 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7" s="2" customFormat="1">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>2029403</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>0.85</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>0.66</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>1048300</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>0.93</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>0.32</v>
       </c>
     </row>
@@ -906,7 +925,7 @@
         <v>791493</v>
       </c>
       <c r="C20">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="D20">
         <v>0.32</v>
@@ -915,7 +934,7 @@
         <v>608000</v>
       </c>
       <c r="F20">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="G20">
         <v>0.65</v>
@@ -968,6 +987,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>